--- a/formatted/candidates/candidates-4/candidates-positions-wanted-first.xlsx
+++ b/formatted/candidates/candidates-4/candidates-positions-wanted-first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B303B9D-DFCA-454C-ACCF-C1BA8BE9CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F4B42-7BAF-3746-B320-D61CCA5C1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="52140" windowHeight="23060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72426,7 +72426,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9001" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>